--- a/biology/Zoologie/Charaxes/Charaxes.xlsx
+++ b/biology/Zoologie/Charaxes/Charaxes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes est un genre de lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et à la tribu des Charaxini.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Charaxes comprend environ 200 espèces majoritairement distribuées en Afrique tropicale. Plusieurs groupes d'espèces sont également présents dans les régions Orientale et Australasienne (y compris certaines îles du Pacifique)[1]. Enfin, le Pacha à deux queues ou Nymphale de l'arbousier (Charaxes jasius) a une très large aire de distribution dont la partie la plus septentrionale englobe le pourtour Méditerranéen.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Charaxes comprend environ 200 espèces majoritairement distribuées en Afrique tropicale. Plusieurs groupes d'espèces sont également présents dans les régions Orientale et Australasienne (y compris certaines îles du Pacifique). Enfin, le Pacha à deux queues ou Nymphale de l'arbousier (Charaxes jasius) a une très large aire de distribution dont la partie la plus septentrionale englobe le pourtour Méditerranéen.
 </t>
         </is>
       </c>
@@ -568,18 +584,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Charaxes a été décrit par l'entomologiste allemand Ferdinand Ochsenheimer en 1816[2]. L'espèce type pour le genre est Papilio jasius Linnaeus, 1767[2].
-Synonymes
-Paphia Fabricius, 1807[3]
-Eriboea Hübner, [1819][4]
-Jasia Swainson, 1832[5]
-Monura Mabille, 1877[6]
-Haridra Moore, [1880][7]
-Zingha Hemming, 1939[8]
-Hadrodontes Stoneham, 1964
-Stonehamia Cowan, 1968</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Charaxes a été décrit par l'entomologiste allemand Ferdinand Ochsenheimer en 1816. L'espèce type pour le genre est Papilio jasius Linnaeus, 1767.
+</t>
         </is>
       </c>
     </row>
@@ -604,13 +614,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Taxonomie</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La taxonomie du groupe est rendue particulièrement complexe par la description de nouvelles espèces, sous-espèces et formes dans des journaux sans comité de lecture. Bien que cette pratique soit plus accessible aux amateurs et résulte en général en la description d'espèces valides, le manque d'évaluation par des pairs a potentiellement abouti à une inflation taxonomique de certains groupes dans lesquels de nombreuses espèces ne peuvent pas être diagnostiquées. Ainsi, certaines descriptions de nouveaux Charaxes ne sont pas basées sur une analyse des différences par rapport à d'autres espèces supposées proches dans un cadre phylogénétique. Dans de nombreux cas, le manque de caractères diagnostiques rend donc l'identification de ces espèces virtuellement impossible. Par ailleurs, une approche de barcoding (utilisation d'un gène mitochondrial pour l'identification d'espèces) permet de révéler la paraphylie ou la polyphylie de multiples espèces de Charaxes en particulier dans le groupe Africain etheocles[9]. Une analyse complète du genre basé sur l'assemblage d'un jeu de données moléculaire pour la quasi-intégralité des espèces est en cours afin d'étudier cette question.
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Paphia Fabricius, 1807
+Eriboea Hübner, 
+Jasia Swainson, 1832
+Monura Mabille, 1877
+Haridra Moore, 
+Zingha Hemming, 1939
+Hadrodontes Stoneham, 1964
+Stonehamia Cowan, 1968</t>
         </is>
       </c>
     </row>
@@ -635,12 +657,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taxonomie du groupe est rendue particulièrement complexe par la description de nouvelles espèces, sous-espèces et formes dans des journaux sans comité de lecture. Bien que cette pratique soit plus accessible aux amateurs et résulte en général en la description d'espèces valides, le manque d'évaluation par des pairs a potentiellement abouti à une inflation taxonomique de certains groupes dans lesquels de nombreuses espèces ne peuvent pas être diagnostiquées. Ainsi, certaines descriptions de nouveaux Charaxes ne sont pas basées sur une analyse des différences par rapport à d'autres espèces supposées proches dans un cadre phylogénétique. Dans de nombreux cas, le manque de caractères diagnostiques rend donc l'identification de ces espèces virtuellement impossible. Par ailleurs, une approche de barcoding (utilisation d'un gène mitochondrial pour l'identification d'espèces) permet de révéler la paraphylie ou la polyphylie de multiples espèces de Charaxes en particulier dans le groupe Africain etheocles. Une analyse complète du genre basé sur l'assemblage d'un jeu de données moléculaire pour la quasi-intégralité des espèces est en cours afin d'étudier cette question.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charaxes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cette classification est basée sur l'étude phylogénétique moléculaire la plus récente du genre Charaxes[10]. De nombreuses espèces n'ayant pas été placées dans un arbre phylogénétique, leur rattachement à un groupe particulier est basé sur des critères morphologiques[11] dans l'attente d'une nouvelle hypothèse phylogénétique pour le genre.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cette classification est basée sur l'étude phylogénétique moléculaire la plus récente du genre Charaxes. De nombreuses espèces n'ayant pas été placées dans un arbre phylogénétique, leur rattachement à un groupe particulier est basé sur des critères morphologiques dans l'attente d'une nouvelle hypothèse phylogénétique pour le genre.
 Sous-genre Charaxes Ochsenheimer, 1816
 Groupe acraeoides
 Charaxes acraeoides (Druce, 1908)
@@ -827,7 +884,7 @@
 Sous-genre Euxanthe Hübner, 1819
 Groupe Euxanthe
 Charaxes crossleyi (Ward, 1871)
-Charaxes eurinome (Cramer, [1775])
+Charaxes eurinome (Cramer, )
 Charaxes madagascariensis (Lucas, 1843)
 Charaxes tiberius Grose-Smith, 1889
 Charaxes trajanus (Ward, 1871)
